--- a/biology/Botanique/Vallilanlaakso/Vallilanlaakso.xlsx
+++ b/biology/Botanique/Vallilanlaakso/Vallilanlaakso.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La  vallée de Vallila (en finnois : Vallilanlaakso) ou vallée du manoir de Kumpula (en finnois : Kumpulan kartanon laakso), est une zone de parcs du située dans la partie nord de Vallila et la partie sud de Kumpula à Helsinki en Finlande[1],[2]
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La  vallée de Vallila (en finnois : Vallilanlaakso) ou vallée du manoir de Kumpula (en finnois : Kumpulan kartanon laakso), est une zone de parcs du située dans la partie nord de Vallila et la partie sud de Kumpula à Helsinki en Finlande,
 </t>
         </is>
       </c>
@@ -511,16 +523,18 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La zone est surtout connue pour les jardins familiaux de Vallila, créés en 1932 et actuellement protégé par le plan du site.
-Le jardin botanique de Kumpula est situé à proximité immédiate du jardins familiaux[3].
+Le jardin botanique de Kumpula est situé à proximité immédiate du jardins familiaux.
 Le parc a des sentiers pédestres et cyclables et des pelouses ouvertes bordées par des groupes d'arbres du parc et de petits plantations.
-De hauts bâtiments sont construits sur les pentes bordant la vallée[4].
-Vallilanlaakso a été qualifié de parc de la ville et d'importante zone de loisirs locale, et en particulier sa partie orientale en tant qu'environnement culturel d'une valeur culturelle, historique et d'importance régionale[4].
-La zone est bordée à l'ouest par Mäkelänkatu, au nord par Kumpulan Isonniitynkatu et au sud par deux terrains de football[5].
-La superficie totale de la zone est d'environ 43 000 m²[5].
-En plus des jardins et des terrains de jeux, la zone abrite le manoir de Kumpula[4] et une maison en bois rouge à deux étages, la Villa Novilla, construite à la fin du XIXe siècle[6].
+De hauts bâtiments sont construits sur les pentes bordant la vallée.
+Vallilanlaakso a été qualifié de parc de la ville et d'importante zone de loisirs locale, et en particulier sa partie orientale en tant qu'environnement culturel d'une valeur culturelle, historique et d'importance régionale.
+La zone est bordée à l'ouest par Mäkelänkatu, au nord par Kumpulan Isonniitynkatu et au sud par deux terrains de football.
+La superficie totale de la zone est d'environ 43 000 m².
+En plus des jardins et des terrains de jeux, la zone abrite le manoir de Kumpula et une maison en bois rouge à deux étages, la Villa Novilla, construite à la fin du XIXe siècle.
 </t>
         </is>
       </c>
